--- a/DecisionTable.xlsx
+++ b/DecisionTable.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26819"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="2640" yWindow="2480" windowWidth="26620" windowHeight="16060" tabRatio="500"/>
+    <workbookView xWindow="620" yWindow="2180" windowWidth="33680" windowHeight="24500" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="41">
   <si>
     <t>Button</t>
   </si>
@@ -100,6 +100,48 @@
   </si>
   <si>
     <t>Normal,GlossAQ,No Bundle,Flat</t>
+  </si>
+  <si>
+    <t>Changes value of</t>
+  </si>
+  <si>
+    <t>stock</t>
+  </si>
+  <si>
+    <t>SatinAQ</t>
+  </si>
+  <si>
+    <t>Stock</t>
+  </si>
+  <si>
+    <t>"==18pt"</t>
+  </si>
+  <si>
+    <t>Spot-Gloss,SoftTouch</t>
+  </si>
+  <si>
+    <t>UV</t>
+  </si>
+  <si>
+    <t>OneSided</t>
+  </si>
+  <si>
+    <t>o</t>
+  </si>
+  <si>
+    <t>Die Cut</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>Score</t>
+  </si>
+  <si>
+    <t>sc</t>
+  </si>
+  <si>
+    <t>Roll Fold</t>
   </si>
 </sst>
 </file>
@@ -178,11 +220,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -520,10 +563,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" zoomScalePageLayoutView="175" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -531,11 +574,11 @@
     <col min="1" max="1" width="20.33203125" customWidth="1"/>
     <col min="3" max="3" width="34.33203125" customWidth="1"/>
     <col min="4" max="4" width="23.5" customWidth="1"/>
-    <col min="5" max="5" width="21.6640625" customWidth="1"/>
-    <col min="7" max="7" width="85" customWidth="1"/>
+    <col min="5" max="6" width="21.6640625" customWidth="1"/>
+    <col min="8" max="8" width="85" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1">
+    <row r="1" spans="1:8" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -552,13 +595,16 @@
         <v>11</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="3" customFormat="1">
+    <row r="2" spans="1:8" s="3" customFormat="1">
       <c r="A2" s="3" t="s">
         <v>23</v>
       </c>
@@ -571,11 +617,11 @@
       <c r="D2" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="H2" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -586,7 +632,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:8">
       <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
@@ -599,8 +645,9 @@
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="G4" s="2"/>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -611,97 +658,185 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:8">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="B6" t="b">
         <v>1</v>
       </c>
-      <c r="E6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+      <c r="G6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="B7" t="b">
         <v>1</v>
       </c>
-      <c r="E7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+      <c r="G7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>38</v>
+      </c>
+      <c r="B8" t="b">
+        <v>1</v>
+      </c>
+      <c r="G8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>40</v>
+      </c>
+      <c r="B9" t="b">
+        <v>1</v>
       </c>
       <c r="E9" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:8">
       <c r="A10" t="s">
         <v>3</v>
       </c>
       <c r="B10" t="b">
         <v>1</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" t="b">
+        <v>1</v>
+      </c>
+      <c r="E11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" t="b">
+        <v>1</v>
+      </c>
+      <c r="E12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" t="s">
+        <v>20</v>
+      </c>
+      <c r="E13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" t="s">
+        <v>3</v>
+      </c>
+      <c r="B15" t="b">
+        <v>1</v>
+      </c>
+      <c r="D15" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
-      <c r="A11" t="s">
+    <row r="16" spans="1:8">
+      <c r="A16" t="s">
         <v>13</v>
       </c>
-      <c r="B11" t="b">
-        <v>1</v>
-      </c>
-      <c r="D11" t="s">
+      <c r="B16" t="b">
+        <v>1</v>
+      </c>
+      <c r="D16" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
-      <c r="A12" t="s">
+    <row r="17" spans="1:6">
+      <c r="A17" t="s">
         <v>14</v>
       </c>
-      <c r="B12" t="b">
-        <v>1</v>
-      </c>
-      <c r="D12" t="s">
+      <c r="B17" t="b">
+        <v>1</v>
+      </c>
+      <c r="D17" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
-      <c r="A13" t="s">
+    <row r="18" spans="1:6">
+      <c r="A18" t="s">
         <v>15</v>
       </c>
-      <c r="B13" t="b">
-        <v>1</v>
-      </c>
-      <c r="D13" t="s">
+      <c r="B18" t="b">
+        <v>1</v>
+      </c>
+      <c r="D18" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
-      <c r="A14" t="s">
+    <row r="19" spans="1:6">
+      <c r="A19" t="s">
         <v>16</v>
       </c>
-      <c r="B14" t="b">
-        <v>1</v>
-      </c>
-      <c r="D14" t="s">
+      <c r="B19" t="b">
+        <v>1</v>
+      </c>
+      <c r="D19" t="s">
         <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" t="s">
+        <v>33</v>
+      </c>
+      <c r="B20" t="b">
+        <v>1</v>
+      </c>
+      <c r="F20" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21" t="b">
+        <v>1</v>
+      </c>
+      <c r="F21" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" t="s">
+        <v>30</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C22" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
